--- a/doc/cookbook/resource/resource-tool.xlsx
+++ b/doc/cookbook/resource/resource-tool.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple_2.3_community\doc\cookbook\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple.community\doc\cookbook\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="758" yWindow="743" windowWidth="22718" windowHeight="8505" tabRatio="768"/>
+    <workbookView xWindow="758" yWindow="743" windowWidth="22718" windowHeight="8505" tabRatio="768" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="buffer" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14368" uniqueCount="6521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14369" uniqueCount="6522">
   <si>
     <t>name</t>
   </si>
@@ -19593,6 +19593,9 @@
   </si>
   <si>
     <t>tool</t>
+  </si>
+  <si>
+    <t>level</t>
   </si>
 </sst>
 </file>
@@ -19938,7 +19941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
@@ -69095,63 +69098,81 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="33.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" t="s">
+        <v>6521</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>6449</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>6450</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>6451</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>61</v>
       </c>
       <c r="B5" t="s">
         <v>6452</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>6453</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/doc/cookbook/resource/resource-tool.xlsx
+++ b/doc/cookbook/resource/resource-tool.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="758" yWindow="743" windowWidth="22718" windowHeight="8505" tabRatio="768" activeTab="10"/>
+    <workbookView xWindow="758" yWindow="743" windowWidth="22718" windowHeight="8505" tabRatio="768" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="buffer" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14369" uniqueCount="6522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14397" uniqueCount="6522">
   <si>
     <t>name</t>
   </si>
@@ -69100,8 +69100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -69415,19 +69415,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -69438,19 +69438,22 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6488</v>
       </c>
@@ -69460,20 +69463,23 @@
       <c r="C2" t="s">
         <v>6471</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" t="s">
+        <v>6462</v>
+      </c>
+      <c r="E2" s="1">
         <v>42005</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>31</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6489</v>
       </c>
@@ -69483,20 +69489,23 @@
       <c r="C3" t="s">
         <v>6471</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" t="s">
+        <v>6462</v>
+      </c>
+      <c r="E3" s="1">
         <v>42005</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6490</v>
       </c>
@@ -69506,20 +69515,23 @@
       <c r="C4" t="s">
         <v>6471</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" t="s">
+        <v>6462</v>
+      </c>
+      <c r="E4" s="1">
         <v>42005</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6491</v>
       </c>
@@ -69529,20 +69541,23 @@
       <c r="C5" t="s">
         <v>6471</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" t="s">
+        <v>6462</v>
+      </c>
+      <c r="E5" s="1">
         <v>42005</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6492</v>
       </c>
@@ -69552,20 +69567,23 @@
       <c r="C6" t="s">
         <v>6471</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" t="s">
+        <v>6462</v>
+      </c>
+      <c r="E6" s="1">
         <v>42005</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6493</v>
       </c>
@@ -69575,20 +69593,23 @@
       <c r="C7" t="s">
         <v>6471</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" t="s">
+        <v>6462</v>
+      </c>
+      <c r="E7" s="1">
         <v>42005</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>31</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6494</v>
       </c>
@@ -69598,20 +69619,23 @@
       <c r="C8" t="s">
         <v>6471</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" t="s">
+        <v>6462</v>
+      </c>
+      <c r="E8" s="1">
         <v>42005</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>31</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6495</v>
       </c>
@@ -69621,20 +69645,23 @@
       <c r="C9" t="s">
         <v>6471</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" t="s">
+        <v>6462</v>
+      </c>
+      <c r="E9" s="1">
         <v>42005</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>6496</v>
       </c>
@@ -69644,20 +69671,23 @@
       <c r="C10" t="s">
         <v>6471</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" t="s">
+        <v>6462</v>
+      </c>
+      <c r="E10" s="1">
         <v>42005</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>31</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>6497</v>
       </c>
@@ -69667,20 +69697,23 @@
       <c r="C11" t="s">
         <v>6472</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" t="s">
+        <v>6462</v>
+      </c>
+      <c r="E11" s="1">
         <v>42005</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>31</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>6498</v>
       </c>
@@ -69690,20 +69723,23 @@
       <c r="C12" t="s">
         <v>6472</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" t="s">
+        <v>6462</v>
+      </c>
+      <c r="E12" s="1">
         <v>42005</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>31</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>6499</v>
       </c>
@@ -69713,20 +69749,23 @@
       <c r="C13" t="s">
         <v>6472</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" t="s">
+        <v>6462</v>
+      </c>
+      <c r="E13" s="1">
         <v>42005</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>31</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>6500</v>
       </c>
@@ -69736,20 +69775,23 @@
       <c r="C14" t="s">
         <v>6472</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" t="s">
+        <v>6462</v>
+      </c>
+      <c r="E14" s="1">
         <v>42005</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>31</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>6501</v>
       </c>
@@ -69759,20 +69801,23 @@
       <c r="C15" t="s">
         <v>6472</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" t="s">
+        <v>6462</v>
+      </c>
+      <c r="E15" s="1">
         <v>42005</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>31</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>6502</v>
       </c>
@@ -69782,20 +69827,23 @@
       <c r="C16" t="s">
         <v>6472</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" t="s">
+        <v>6462</v>
+      </c>
+      <c r="E16" s="1">
         <v>42005</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>31</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>6503</v>
       </c>
@@ -69805,20 +69853,23 @@
       <c r="C17" t="s">
         <v>6472</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" t="s">
+        <v>6462</v>
+      </c>
+      <c r="E17" s="1">
         <v>42005</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>31</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>6504</v>
       </c>
@@ -69828,20 +69879,23 @@
       <c r="C18" t="s">
         <v>6472</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" t="s">
+        <v>6462</v>
+      </c>
+      <c r="E18" s="1">
         <v>42005</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>31</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>6505</v>
       </c>
@@ -69851,20 +69905,23 @@
       <c r="C19" t="s">
         <v>6472</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" t="s">
+        <v>6462</v>
+      </c>
+      <c r="E19" s="1">
         <v>42005</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>31</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>6506</v>
       </c>
@@ -69874,20 +69931,23 @@
       <c r="C20" t="s">
         <v>6479</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" t="s">
+        <v>6462</v>
+      </c>
+      <c r="E20" s="1">
         <v>42005</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>31</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>6507</v>
       </c>
@@ -69897,20 +69957,23 @@
       <c r="C21" t="s">
         <v>6479</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" t="s">
+        <v>6462</v>
+      </c>
+      <c r="E21" s="1">
         <v>42005</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>31</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>6508</v>
       </c>
@@ -69920,20 +69983,23 @@
       <c r="C22" t="s">
         <v>6479</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" t="s">
+        <v>6462</v>
+      </c>
+      <c r="E22" s="1">
         <v>42005</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>31</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>6509</v>
       </c>
@@ -69943,20 +70009,23 @@
       <c r="C23" t="s">
         <v>6479</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" t="s">
+        <v>6462</v>
+      </c>
+      <c r="E23" s="1">
         <v>42005</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>31</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>6510</v>
       </c>
@@ -69966,20 +70035,23 @@
       <c r="C24" t="s">
         <v>6479</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" t="s">
+        <v>6462</v>
+      </c>
+      <c r="E24" s="1">
         <v>42005</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>31</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>6511</v>
       </c>
@@ -69989,20 +70061,23 @@
       <c r="C25" t="s">
         <v>6479</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" t="s">
+        <v>6462</v>
+      </c>
+      <c r="E25" s="1">
         <v>42005</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>31</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>6512</v>
       </c>
@@ -70012,20 +70087,23 @@
       <c r="C26" t="s">
         <v>6479</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" t="s">
+        <v>6462</v>
+      </c>
+      <c r="E26" s="1">
         <v>42005</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>31</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>6513</v>
       </c>
@@ -70035,20 +70113,23 @@
       <c r="C27" t="s">
         <v>6479</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" t="s">
+        <v>6462</v>
+      </c>
+      <c r="E27" s="1">
         <v>42005</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>31</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>6514</v>
       </c>
@@ -70058,16 +70139,19 @@
       <c r="C28" t="s">
         <v>6479</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" t="s">
+        <v>6462</v>
+      </c>
+      <c r="E28" s="1">
         <v>42005</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>31</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>9</v>
       </c>
     </row>

--- a/doc/cookbook/resource/resource-tool.xlsx
+++ b/doc/cookbook/resource/resource-tool.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple.community\doc\cookbook\resource\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="758" yWindow="743" windowWidth="22718" windowHeight="8505" tabRatio="768" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16493" windowHeight="7545" tabRatio="768" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="buffer" sheetId="1" r:id="rId1"/>
@@ -26,11 +21,12 @@
     <sheet name="parameter" sheetId="19" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <oleSize ref="A1:O24"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14397" uniqueCount="6522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14409" uniqueCount="6534">
   <si>
     <t>name</t>
   </si>
@@ -19596,6 +19592,42 @@
   </si>
   <si>
     <t>level</t>
+  </si>
+  <si>
+    <t>itemA_s1</t>
+  </si>
+  <si>
+    <t>itemA_s2</t>
+  </si>
+  <si>
+    <t>itemA_s3</t>
+  </si>
+  <si>
+    <t>itemA_s4</t>
+  </si>
+  <si>
+    <t>itemB_s1</t>
+  </si>
+  <si>
+    <t>itemB_s2</t>
+  </si>
+  <si>
+    <t>itemB_s3</t>
+  </si>
+  <si>
+    <t>itemB_s4</t>
+  </si>
+  <si>
+    <t>itemC_s1</t>
+  </si>
+  <si>
+    <t>itemC_s2</t>
+  </si>
+  <si>
+    <t>itemC_s3</t>
+  </si>
+  <si>
+    <t>itemC_s4</t>
   </si>
 </sst>
 </file>
@@ -19942,7 +19974,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20006,7 +20038,7 @@
         <v>6462</v>
       </c>
       <c r="D3" t="s">
-        <v>6471</v>
+        <v>6522</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -20026,7 +20058,7 @@
         <v>6462</v>
       </c>
       <c r="D4" t="s">
-        <v>6471</v>
+        <v>6523</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -20046,7 +20078,7 @@
         <v>6462</v>
       </c>
       <c r="D5" t="s">
-        <v>6471</v>
+        <v>6524</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -20066,7 +20098,7 @@
         <v>6462</v>
       </c>
       <c r="D6" t="s">
-        <v>6471</v>
+        <v>6525</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -20106,7 +20138,7 @@
         <v>6462</v>
       </c>
       <c r="D8" t="s">
-        <v>6472</v>
+        <v>6526</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20126,7 +20158,7 @@
         <v>6462</v>
       </c>
       <c r="D9" t="s">
-        <v>6472</v>
+        <v>6527</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -20146,7 +20178,7 @@
         <v>6462</v>
       </c>
       <c r="D10" t="s">
-        <v>6472</v>
+        <v>6528</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -20166,7 +20198,7 @@
         <v>6462</v>
       </c>
       <c r="D11" t="s">
-        <v>6472</v>
+        <v>6529</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -20206,7 +20238,7 @@
         <v>6462</v>
       </c>
       <c r="D13" t="s">
-        <v>6479</v>
+        <v>6530</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -20226,7 +20258,7 @@
         <v>6462</v>
       </c>
       <c r="D14" t="s">
-        <v>6479</v>
+        <v>6531</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -20246,7 +20278,7 @@
         <v>6462</v>
       </c>
       <c r="D15" t="s">
-        <v>6479</v>
+        <v>6532</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -20266,7 +20298,7 @@
         <v>6462</v>
       </c>
       <c r="D16" t="s">
-        <v>6479</v>
+        <v>6533</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -69417,8 +69449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -70701,10 +70733,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A14" sqref="A14:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -70736,18 +70768,78 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>6472</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6486</v>
+        <v>6522</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>6523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>6524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>6525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>6472</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>6526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>6527</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>6528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>6529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>6479</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B13" t="s">
         <v>6487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>6530</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>6531</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>6532</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>6533</v>
       </c>
     </row>
   </sheetData>
@@ -70794,7 +70886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
